--- a/data.xlsx
+++ b/data.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1618\Desktop\run_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1617\Desktop\sap_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,6 +83,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="cs-CZ" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>run</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,11 +422,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List1"/>
   <dimension ref="D1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,5 +444,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!runpython">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>